--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Suzanny-Desenho Básico e Mec.-1NA, Suzanny-Desenho Básico e Mec.-1NA, Suzanny-Desenho Básico e Mec.-1NA, Suzanny-Desenho Básico e Mec.-1NA]</t>
+          <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, Weslei-Metrologia-1NA, Weslei-Metrologia-1NA, Weslei-Metrologia-1NA]</t>
+          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos materiais.-1NA, Rachel-Tecnologia dos materiais.-1NA, Rachel-Tecnologia dos materiais.-1NA, Rachel-Tecnologia dos materiais.-1NA]</t>
+          <t>[Anderson-Processos de Usinagem 1-1NA, Rogério-Processos de Usinagem 2-1NA, Weslei-Metrologia-1NA, Leonardo-Manut. Mecânica-1NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Manut. Mecânica-1NA, Leonardo R.-Manut. Mecânica-1NA, Leonardo R.-Manut. Mecânica-1NA, Leonardo R.-Manut. Mecânica-1NA]</t>
+          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Sandro M.-Lógica de programação-1NA, Sandro M.-Lógica de programação-1NA, Sandro M.-Lógica de programação-1NA, Sandro M.-Lógica de programação-1NA]</t>
+          <t>[-, Leonardo-Manut. Mecânica-1NA, Weslei-Metrologia-1NA, -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Sandro M.-Acionamentos Elétricos-1NA, Sandro M.-Acionamentos Elétricos-1NA, Sandro M.-Acionamentos Elétricos-1NA, Sandro M.-Acionamentos Elétricos-1NA]</t>
+          <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
+          <t>[Anderson-Processos de Usinagem 1-1NA, Rogério-Processos de Usinagem 2-1NA, Weslei-Metrologia-1NA, Leonardo-Manut. Mecânica-1NA]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guilherme-M.T.R.M.-</t>
+          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Gilberto-Tecnologias Mecânicas-</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[Pedro Bispo-Manut. Elétrica-1NA, Pedro Bispo-Manut. Elétrica-1NA, Pedro Bispo-Manut. Elétrica-1NA, Pedro Bispo-Manut. Elétrica-1NA]</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
+          <t>Guilherme-Máquinas Térmicas e de Fluxo-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guilherme-M.T.R.M.-</t>
+          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>[Weslei-Metrologia-1NA, Anderson-Processos de Usinagem 1-1NA, -, Rogério-Processos de Usinagem 2-1NA]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Gilberto-Tecnologias Mecânicas-</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Cleidson-Sistemas Digitais-1NA, Cleidson-Sistemas Digitais-1NA, Cleidson-Sistemas Digitais-1NA, Cleidson-Sistemas Digitais-1NA]</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Anderson-Usinagem 1-1NA, Anderson-Usinagem 1-1NA, Anderson-Usinagem 1-1NA, Anderson-Usinagem 1-1NA]</t>
+          <t>Guilherme-Máquinas Térmicas e de Fluxo-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Rogério-Usinagem 2-1NA, Rogério-Usinagem 2-1NA, Rogério-Usinagem 2-1NA, Rogério-Usinagem 2-1NA]</t>
+          <t>[Leonardo-Manut. Mecânica-1NA, Anderson-Processos de Usinagem 1-1NA, -, Rogério-Processos de Usinagem 2-1NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[Weslei-Metrologia-1NA, -, -, -]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[Weslei-Metrologia-1NA, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Anderson-Processos de Usinagem 1-1NA, Rogério-Processos de Usinagem 2-1NA, Weslei-Metrologia-1NA, Leonardo-Manut. Mecânica-1NA]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, Leonardo-Manut. Mecânica-1NA, Weslei-Metrologia-1NA, -]</t>
+          <t>[Weslei-Metrologia-1NA, -, -, -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[Weslei-Metrologia-1NA, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Anderson-Processos de Usinagem 1-1NA, Rogério-Processos de Usinagem 2-1NA, Weslei-Metrologia-1NA, Leonardo-Manut. Mecânica-1NA]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecânicas-</t>
+          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
+          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, Anderson-Processos de Usinagem 1-1NA, -, Rogério-Processos de Usinagem 2-1NA]</t>
+          <t>Euclides-Gestão Integrada-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Gilberto-Tecnologias Mecânicas-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[-, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Gilberto-Tecnologias Mecânicas-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Guilherme-Máquinas Térmicas e de Fluxo-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Sandro-Acionamentos Elétricos-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Leonardo-Manut. Mecânica-1NA, Anderson-Processos de Usinagem 1-1NA, -, Rogério-Processos de Usinagem 2-1NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, -, -, -]</t>
+          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
+          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, -, -, -]</t>
+          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
+          <t>Guilherme-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia-1NA, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais.-1NA, Rachel-Tecnologia dos Materiais.-1NA]</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integrada-</t>
+          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Guilherme-Máquinas Térmicas e de Fluxo-</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétricos 1-</t>
+          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integrada-</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecânicas-</t>
+          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Cleidson-Sistemas digitais-1NA, Pedro Bispo-Manut. Elétrica-1NA, Sandro-Lógica de Programação-1NA, Sandro-Acionamentos Elétricos-1NA]</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec.-1NA, Suzanny-Des. Bas. Mec.-1NA]</t>
+          <t>Guilherme-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, Rogério-Processos de Usinagem 2-1NA, Anderson-Processos de Usinagem 1-1NA, Leonardo-Manut. Mecânica-1NA]</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecânicas-</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
     </row>
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
+          <t>Guilherme-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica]</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
+          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
+          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gilberto-Tecnologias Mecâni</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Guilherme-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
+          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
+          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Cleidson-Sistemas digitais]</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Euclides-Gestão Integr</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
+          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[Pedro Bispo-Manut. Elétrica, Cleidson-Sistemas digitais, Rogério-Processos de Usinagem 2, Weslei-Metrologia]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Anderson-Processos de Usinagem 1, Leonardo-Manut. Mecânica, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>[Sandro-Acionamentos Elétricos, Sandro-Lógica de Programação, Leonardo-Manut. Mecânica, Weslei-Metrologia]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Anderson-Processos de Usinagem 1, Leonardo-Manut. Mecânica, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Guilherme-Máquinas Térmicas e de Fl</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
+          <t>[Anderson-Processos de Usinagem 1, Rogério-Processos de Usinagem 2, Cleidson-Sistemas digitais, Sandro-Lógica de Programação]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Guilherme-Máquinas Térmicas e de Fl</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>[Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos, Rogério-Processos de Usinagem 2, Weslei-Metrologia]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Pedro Bispo-Manut. Elétrica, Cleidson-Sistemas digitais]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gilberto-Tecnologias Mecâni</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Euclides-Gestão Integr</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Rogério-Processos de Usinagem 2, Weslei-Metrologia, Leonardo-Manut. Mecânica, Cleidson-Sistemas digitais]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Anderson-Processos de Usinagem 1, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Manut. Elétrica, Cleidson-Sistemas digitais, Rogério-Processos de Usinagem 2, Weslei-Metrologia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Leonardo-Manut. Mecânica, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Sandro-Lógica de Programação, Leonardo-Manut. Mecânica, Weslei-Metrologia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Leonardo-Manut. Mecânica, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Suzanny-Des. Bas. Mec.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Rogério-Processos de Usinagem 2, Cleidson-Sistemas digitais, Sandro-Lógica de Programação]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guilherme-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Sandro-Acionamentos Elétricos, Rogério-Processos de Usinagem 2, Weslei-Metrologia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Weslei-Metrologia, Pedro Bispo-Manut. Elétrica, Cleidson-Sistemas digitais]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Rachel-Tecnologia dos Materiais.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-Tecnologia dos Materiais., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Bas. Mec., Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Processos de Usinagem 1, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Rachel-Tecnologia dos Materiais.]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Acionamentos Elétricos, Cleidson-Sistemas digitais, -, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Tecnologias Mecâni</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Manut. Mecânica, Weslei-Metrologia, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Weslei-Metrologia, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão Integr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Anderson-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Allan Cupertino-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Acionamentos Elétricos, Cleidson-Sistemas digitais, Weslei-Metrologia, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-Tecnologia dos Materiais., Suzanny-Des. Bas. Mec.]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Suzanny-Des. Bas. Mec.]</t>
+          <t>Guilherme-Maq. Term. FL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Weslei-Metrologia, Anderson-Processos de Usinagem 1]</t>
+          <t>Cleison-Tecnologia Mecân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Bas. Mec., Rachel-Tecnologia dos Materiais.]</t>
+          <t>Guilherme-Gestão Integr</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>[Pedro Bispo-Manutenção Elétrica, Leonardo R.-Manutenção Mecãnica, Sandro-Acionamentos Elétricos, Weslei-Metrologia]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Anderson-Processos de Usinagem 1, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação]</t>
+          <t>[Leonardo R.-Manutenção Mecãnica, Sandro-Lógica de Programação, Rogério-Processos de Usinagem 2, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, Rachel-Tecnologia dos Materiais.]</t>
+          <t>Guilherme-Maq. Term. FL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Cleidson-Sistemas digitais, -, Anderson-Processos de Usinagem 1]</t>
+          <t>Cleison-Tecnologia Mecân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
+          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gilberto-Tecnologias Mecâni</t>
+          <t>[-, Weslei-Metrologia, Sandro-Lógica de Programação, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Weslei-Metrologia, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+          <t>[And. Edson-processos de Usinagem 1, Sandro-Lógica de Programação, Leonardo R.-Manutenção Mecãnica, Pedro Bispo-Manutenção Elétrica]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>Guilherme-Gestão Integr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Sandro-Lógica de Programação, Cleidson-Sistemas digitais, Weslei-Metrologia, Leonardo-Manut. Mecânica]</t>
+          <t>André B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão Integr</t>
+          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-, -, -, Anderson-Processos de Usinagem 1]</t>
+          <t>[Pedro Bispo-Manutenção Elétrica, And. Edson-processos de Usinagem 1, Sandro-Acionamentos Elétricos, Leonardo R.-Manutenção Mecãnica]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Acionamentos Elétricos]</t>
+          <t>[Weslei-Metrologia, Pedro Bispo-Manutenção Elétrica, Rogério-Processos de Usinagem 2, Sandro-Lógica de Programação]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Circuitos Elétrico</t>
+          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Sandro-Acionamentos Elétricos, Cleidson-Sistemas digitais, Weslei-Metrologia, Rogério-Processos de Usinagem 2]</t>
+          <t>André B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, Suzanny-Des. Bas. Mec.]</t>
+          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais., Suzanny-Des. Bas. Mec.]</t>
+          <t>[-, Weslei-Metrologia, Sandro-Acionamentos Elétricos, And. Edson-processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Rogério-Processos de Usinagem 2, Pedro Bispo-Manut. Elétrica, Sandro-Lógica de Programação]</t>
+          <t>[Rogério-Processos de Usinagem 2, -, And. Edson-processos de Usinagem 1, Sandro-Acionamentos Elétricos]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-1NA.xlsx
+++ b/data/turm/ELM-1NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Guilherme-Maq. Term. FL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cleison-Tecnologia Mecân</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Guilherme-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Manutenção Elétrica, Leonardo R.-Manutenção Mecãnica, Sandro-Acionamentos Elétricos, Weslei-Metrologia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Leonardo R.-Manutenção Mecãnica, Sandro-Lógica de Programação, Rogério-Processos de Usinagem 2, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Guilherme-Maq. Term. FL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cleison-Tecnologia Mecân</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia, Sandro-Lógica de Programação, Rogério-Processos de Usinagem 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[And. Edson-processos de Usinagem 1, Sandro-Lógica de Programação, Leonardo R.-Manutenção Mecãnica, Pedro Bispo-Manutenção Elétrica]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guilherme-Gestão Integr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>André B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Manutenção Elétrica, And. Edson-processos de Usinagem 1, Sandro-Acionamentos Elétricos, Leonardo R.-Manutenção Mecãnica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia, Pedro Bispo-Manutenção Elétrica, Rogério-Processos de Usinagem 2, Sandro-Lógica de Programação]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>André B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Rachel-Tecnologia dos Materiais, Suzanny-Desenho Básico e Mecânico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia, Sandro-Acionamentos Elétricos, And. Edson-processos de Usinagem 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, -, And. Edson-processos de Usinagem 1, Sandro-Acionamentos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
